--- a/biology/Virologie/Virus_de_la_tristeza_des_agrumes/Virus_de_la_tristeza_des_agrumes.xlsx
+++ b/biology/Virologie/Virus_de_la_tristeza_des_agrumes/Virus_de_la_tristeza_des_agrumes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citrus tristeza virus
 Le virus de la tristeza des agrumes (CTV, Citrus tristeza virus) est une espèce de phytovirus du genre Closterovirus (famille des Closteroviridae) qui affecte la plupart des espèces de plantes du genre Citrus. 
@@ -514,9 +526,11 @@
           <t>Structure et morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus de la tristeza des agrumes est constitué de virions en forme de longs filaments flexueux hélicoïdaux de 2000 nm de longueur et 12 nm de largeur, avec deux protéines de capside enveloppant la première (CP) une extrémité et essentiel du corps (plus de 95 %) et la seconde (CPm) l'autre extrémité[2]. C'est le plus grand des phytovirus à ARN connus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus de la tristeza des agrumes est constitué de virions en forme de longs filaments flexueux hélicoïdaux de 2000 nm de longueur et 12 nm de largeur, avec deux protéines de capside enveloppant la première (CP) une extrémité et essentiel du corps (plus de 95 %) et la seconde (CPm) l'autre extrémité. C'est le plus grand des phytovirus à ARN connus.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces de pucerons transmettent le CTV sur un mode semi-persistant. Il s'agit d'Aphis gossypii, Aphis spiraecola,  Toxoptera citricida et Toxoptera aurantii[3]. Le vecteur le plus efficace est Toxoptera citricida, insecte présent seulement dans l'hémisphère sud mais qui tend à s'étendre vers le nord.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de pucerons transmettent le CTV sur un mode semi-persistant. Il s'agit d'Aphis gossypii, Aphis spiraecola,  Toxoptera citricida et Toxoptera aurantii. Le vecteur le plus efficace est Toxoptera citricida, insecte présent seulement dans l'hémisphère sud mais qui tend à s'étendre vers le nord.
 La transmission se fait également facilement par greffe lorsque le phloème des greffons est déjà contaminé par le virus et qu'il se trouve en contact avec le phloème de la plante greffée. Le virus peut aussi être transmis par inoculation mécanique.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces et cultivars du genre Citrus sont sensibles à ce virus qui affecte également certaines espèces d'autres genres de la famille des Rutaceae, dont Aeglopsis, Afraegle, Fortunella et Pamburus[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces et cultivars du genre Citrus sont sensibles à ce virus qui affecte également certaines espèces d'autres genres de la famille des Rutaceae, dont Aeglopsis, Afraegle, Fortunella et Pamburus.
 La maladie de la tristeza atteint surtout les orangers élevés sur bigaradier comme porte-greffe. 
 </t>
         </is>
@@ -609,9 +627,11 @@
           <t>Régénération des plantes atteintes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CTV ne se transmet pas par les graines, le semis donne donc des plantes exemptes de virus. La thermothérapie est la technique usuelle d'élimination du virus CTV[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CTV ne se transmet pas par les graines, le semis donne donc des plantes exemptes de virus. La thermothérapie est la technique usuelle d'élimination du virus CTV.
 </t>
         </is>
       </c>
